--- a/config_4.6/rank_server.xlsx
+++ b/config_4.6/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="630">
   <si>
     <t>id|</t>
   </si>
@@ -2430,11 +2430,119 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>fix_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>294,301,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>295,302,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>296,303,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>297,304,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>298,305,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>299,306,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,307,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_007_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_008_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>308,315,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>309,316,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>310,317,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>311,318,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>312,319,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>313,320,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>314,321,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltqf_012_fqdr_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福气达人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>nor_add</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>fix_time</t>
+    <t>nor_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2454,75 +2562,146 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>40000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>600福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>800福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>400福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>322,329,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>323,330,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>324,331,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>325,332,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>326,332,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>327,333,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>328,334,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>xxlzb_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_rank</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>nor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>294,301,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>295,302,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>296,303,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>297,304,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>298,305,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>299,306,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,307,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxlzb_007_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxlzb_008_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐争霸</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>308,315,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>309,316,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>310,317,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>311,318,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>312,319,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>313,320,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>314,321,</t>
+    <t>335,342,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>336,343,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>337,344,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>338,345,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>339,345,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>340,346,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>341,347,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3051,11 +3230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46:I47"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4506,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>264</v>
@@ -4565,74 +4744,141 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38">
+    <row r="43" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
-      <c r="B43" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C43" s="38" t="s">
+      <c r="B43" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="26">
         <v>1617062400</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="26">
         <v>1617638399</v>
       </c>
-      <c r="G43" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="38">
+      <c r="G43" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="I43" s="26">
         <v>41</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43" s="26">
         <v>42</v>
       </c>
-      <c r="L43" s="38">
+      <c r="L43" s="26">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="38">
+    <row r="44" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
-      <c r="B44" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="D44" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="E44" s="38">
+      <c r="E44" s="26">
         <v>1617062400</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="26">
         <v>1617638399</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="I44" s="38">
+      <c r="I44" s="26">
         <v>42</v>
       </c>
-      <c r="K44" s="38">
+      <c r="K44" s="26">
         <v>43</v>
       </c>
-      <c r="L44" s="38">
+      <c r="L44" s="26">
         <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="38">
+        <v>44</v>
+      </c>
+      <c r="B45" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="E45" s="38">
+        <v>1617667200</v>
+      </c>
+      <c r="F45" s="38">
+        <v>1618243199</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="K45" s="38">
+        <v>44</v>
+      </c>
+      <c r="L45" s="38">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="38">
+        <v>45</v>
+      </c>
+      <c r="B46" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>621</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="38">
+        <v>1617667200</v>
+      </c>
+      <c r="F46" s="38">
+        <v>1618243199</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="I46" s="38">
+        <v>43</v>
+      </c>
+      <c r="K46" s="38">
+        <v>45</v>
+      </c>
+      <c r="L46" s="38">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4644,11 +4890,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91:A94"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5905,88 +6151,156 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="36">
+    <row r="89" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="36">
+      <c r="B89" s="5">
         <v>41</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D89" s="36">
+      <c r="D89" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="36">
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="36">
+      <c r="B90" s="5">
         <v>41</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="36">
+      <c r="D90" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="36">
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="36">
+      <c r="B91" s="5">
         <v>42</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="36">
+      <c r="D91" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="36">
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="36">
+      <c r="B92" s="5">
         <v>42</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D92" s="36">
+      <c r="D92" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="36">
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="36">
+      <c r="B93" s="5">
         <v>42</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D93" s="36">
+      <c r="D93" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="36">
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="36">
+      <c r="B94" s="5">
         <v>42</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D94" s="36">
+      <c r="D94" s="5">
         <v>44</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="36">
+        <v>94</v>
+      </c>
+      <c r="B95" s="36">
+        <v>43</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="36">
+        <v>95</v>
+      </c>
+      <c r="B96" s="36">
+        <v>43</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="36">
+        <v>96</v>
+      </c>
+      <c r="B97" s="36">
+        <v>43</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="36">
+        <v>97</v>
+      </c>
+      <c r="B98" s="36">
+        <v>43</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="36">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5998,10 +6312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:B70"/>
+      <selection activeCell="A71" sqref="A71:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7135,71 +7449,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="36">
+    <row r="67" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="5">
         <v>43</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="36">
+      <c r="D67" s="5">
         <v>9</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="36">
+    <row r="68" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="5">
         <v>43</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="36">
+    <row r="69" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="36">
+      <c r="B69" s="5">
         <v>44</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="5">
         <v>240000</v>
       </c>
-      <c r="E69" s="36">
+      <c r="E69" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="36">
+    <row r="70" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="5">
         <v>44</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="36">
+      <c r="D70" s="5">
         <v>500</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="36">
+        <v>70</v>
+      </c>
+      <c r="B71" s="36">
+        <v>45</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="36">
+        <v>240000</v>
+      </c>
+      <c r="E71" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="36">
+        <v>71</v>
+      </c>
+      <c r="B72" s="36">
+        <v>45</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="36">
+        <v>500</v>
+      </c>
+      <c r="E72" s="36">
         <v>3</v>
       </c>
     </row>
@@ -7310,11 +7658,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8295,26 +8643,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="36">
+    <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="36">
-        <v>1</v>
-      </c>
-      <c r="C43" s="36">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5">
         <v>20</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="5">
         <v>100</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="5">
         <v>20</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="5">
         <v>180</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="5">
         <v>10</v>
       </c>
     </row>
@@ -8338,6 +8686,52 @@
         <v>180</v>
       </c>
       <c r="G44" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="36">
+        <v>44</v>
+      </c>
+      <c r="B45" s="36">
+        <v>1</v>
+      </c>
+      <c r="C45" s="36">
+        <v>20</v>
+      </c>
+      <c r="D45" s="36">
+        <v>100</v>
+      </c>
+      <c r="E45" s="36">
+        <v>20</v>
+      </c>
+      <c r="F45" s="36">
+        <v>180</v>
+      </c>
+      <c r="G45" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="36">
+        <v>45</v>
+      </c>
+      <c r="B46" s="36">
+        <v>1</v>
+      </c>
+      <c r="C46" s="36">
+        <v>20</v>
+      </c>
+      <c r="D46" s="36">
+        <v>100</v>
+      </c>
+      <c r="E46" s="36">
+        <v>20</v>
+      </c>
+      <c r="F46" s="36">
+        <v>180</v>
+      </c>
+      <c r="G46" s="36">
         <v>10</v>
       </c>
     </row>
@@ -8349,11 +8743,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8922,17 +9316,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="5">
         <v>44</v>
       </c>
-      <c r="C41" s="36">
-        <v>1</v>
-      </c>
-      <c r="D41" s="36">
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>40</v>
       </c>
     </row>
@@ -8948,6 +9342,34 @@
       </c>
       <c r="D42" s="2">
         <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="36">
+        <v>42</v>
+      </c>
+      <c r="B43" s="36">
+        <v>46</v>
+      </c>
+      <c r="C43" s="36">
+        <v>1</v>
+      </c>
+      <c r="D43" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="36">
+        <v>43</v>
+      </c>
+      <c r="B44" s="36">
+        <v>47</v>
+      </c>
+      <c r="C44" s="36">
+        <v>1</v>
+      </c>
+      <c r="D44" s="36">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -8959,11 +9381,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9484,26 +9906,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="36">
+    <row r="45" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>568</v>
-      </c>
-      <c r="C45" s="36">
+      <c r="B45" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C45" s="5">
         <v>1617638399</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+    <row r="46" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="5">
         <v>1617638399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="36">
+        <v>46</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="36">
+        <v>1618243199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="36">
+        <v>47</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="36">
+        <v>1618243199</v>
       </c>
     </row>
   </sheetData>
@@ -9514,11 +9958,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I277" sqref="I277"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282:H295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15403,7 +15847,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -15429,7 +15873,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -15455,7 +15899,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -15481,7 +15925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -15507,7 +15951,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -15533,7 +15977,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -15559,7 +16003,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -15581,7 +16025,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -15603,7 +16047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -15625,7 +16069,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -15647,7 +16091,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -15669,368 +16113,746 @@
         <v>122</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="36">
+    <row r="268" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="5">
         <v>267</v>
       </c>
-      <c r="B268" s="36">
+      <c r="B268" s="5">
         <v>40</v>
       </c>
-      <c r="C268" s="36">
-        <v>1</v>
-      </c>
-      <c r="D268" s="36">
-        <v>1</v>
-      </c>
-      <c r="E268" s="36">
+      <c r="C268" s="5">
+        <v>1</v>
+      </c>
+      <c r="D268" s="5">
+        <v>1</v>
+      </c>
+      <c r="E268" s="5">
         <v>3000000</v>
       </c>
-      <c r="F268" s="36">
+      <c r="F268" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G268" s="37" t="s">
+      <c r="G268" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="H268" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="I268" s="5"/>
+    </row>
+    <row r="269" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="5">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5">
+        <v>40</v>
+      </c>
+      <c r="C269" s="5">
+        <v>2</v>
+      </c>
+      <c r="D269" s="5">
+        <v>2</v>
+      </c>
+      <c r="E269" s="5">
+        <v>1800000</v>
+      </c>
+      <c r="F269" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G269" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="H268" s="37" t="s">
+      <c r="H269" s="20" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="36">
-        <v>268</v>
-      </c>
-      <c r="B269" s="36">
+      <c r="I269" s="5"/>
+    </row>
+    <row r="270" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="5">
+        <v>269</v>
+      </c>
+      <c r="B270" s="5">
         <v>40</v>
       </c>
-      <c r="C269" s="36">
+      <c r="C270" s="5">
+        <v>3</v>
+      </c>
+      <c r="D270" s="5">
+        <v>3</v>
+      </c>
+      <c r="E270" s="5">
+        <v>900000</v>
+      </c>
+      <c r="F270" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G270" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="H270" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I270" s="5"/>
+    </row>
+    <row r="271" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="5">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5">
+        <v>40</v>
+      </c>
+      <c r="C271" s="5">
+        <v>4</v>
+      </c>
+      <c r="D271" s="5">
+        <v>6</v>
+      </c>
+      <c r="E271" s="5">
+        <v>450000</v>
+      </c>
+      <c r="F271" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="H271" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="I271" s="5"/>
+    </row>
+    <row r="272" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="5">
+        <v>271</v>
+      </c>
+      <c r="B272" s="5">
+        <v>40</v>
+      </c>
+      <c r="C272" s="5">
+        <v>7</v>
+      </c>
+      <c r="D272" s="5">
+        <v>10</v>
+      </c>
+      <c r="E272" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F272" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G272" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="H272" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="I272" s="5"/>
+    </row>
+    <row r="273" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="5">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5">
+        <v>40</v>
+      </c>
+      <c r="C273" s="5">
+        <v>11</v>
+      </c>
+      <c r="D273" s="5">
+        <v>15</v>
+      </c>
+      <c r="E273" s="5">
+        <v>180000</v>
+      </c>
+      <c r="F273" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G273" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="H273" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="I273" s="5"/>
+    </row>
+    <row r="274" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="5">
+        <v>273</v>
+      </c>
+      <c r="B274" s="5">
+        <v>40</v>
+      </c>
+      <c r="C274" s="5">
+        <v>16</v>
+      </c>
+      <c r="D274" s="5">
+        <v>20</v>
+      </c>
+      <c r="E274" s="5">
+        <v>90000</v>
+      </c>
+      <c r="F274" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G274" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="H274" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="I274" s="5"/>
+    </row>
+    <row r="275" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="5">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5">
+        <v>41</v>
+      </c>
+      <c r="C275" s="5">
+        <v>1</v>
+      </c>
+      <c r="D275" s="5">
+        <v>1</v>
+      </c>
+      <c r="E275" s="5">
+        <v>1500000000</v>
+      </c>
+      <c r="F275" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G275" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="H275" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I275" s="5"/>
+    </row>
+    <row r="276" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="5">
+        <v>275</v>
+      </c>
+      <c r="B276" s="5">
+        <v>41</v>
+      </c>
+      <c r="C276" s="5">
         <v>2</v>
       </c>
-      <c r="D269" s="36">
+      <c r="D276" s="5">
         <v>2</v>
       </c>
-      <c r="E269" s="36">
-        <v>1800000</v>
-      </c>
-      <c r="F269" s="36">
+      <c r="E276" s="5">
+        <v>900000000</v>
+      </c>
+      <c r="F276" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G269" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="H269" s="37" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="36">
-        <v>269</v>
-      </c>
-      <c r="B270" s="36">
-        <v>40</v>
-      </c>
-      <c r="C270" s="36">
+      <c r="G276" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="H276" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I276" s="5"/>
+    </row>
+    <row r="277" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="5">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5">
+        <v>41</v>
+      </c>
+      <c r="C277" s="5">
         <v>3</v>
       </c>
-      <c r="D270" s="36">
+      <c r="D277" s="5">
         <v>3</v>
       </c>
-      <c r="E270" s="36">
-        <v>900000</v>
-      </c>
-      <c r="F270" s="36">
+      <c r="E277" s="5">
+        <v>450000000</v>
+      </c>
+      <c r="F277" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G270" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="H270" s="37" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="36">
-        <v>270</v>
-      </c>
-      <c r="B271" s="36">
-        <v>40</v>
-      </c>
-      <c r="C271" s="36">
+      <c r="G277" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="H277" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I277" s="5"/>
+    </row>
+    <row r="278" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="5">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5">
+        <v>41</v>
+      </c>
+      <c r="C278" s="5">
         <v>4</v>
       </c>
-      <c r="D271" s="36">
+      <c r="D278" s="5">
         <v>6</v>
       </c>
-      <c r="E271" s="36">
-        <v>450000</v>
-      </c>
-      <c r="F271" s="36">
+      <c r="E278" s="5">
+        <v>220000000</v>
+      </c>
+      <c r="F278" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G271" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="H271" s="37" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="36">
-        <v>271</v>
-      </c>
-      <c r="B272" s="36">
-        <v>40</v>
-      </c>
-      <c r="C272" s="36">
+      <c r="G278" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="H278" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I278" s="5"/>
+    </row>
+    <row r="279" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="5">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5">
+        <v>41</v>
+      </c>
+      <c r="C279" s="5">
         <v>7</v>
       </c>
-      <c r="D272" s="36">
+      <c r="D279" s="5">
         <v>10</v>
       </c>
-      <c r="E272" s="36">
-        <v>300000</v>
-      </c>
-      <c r="F272" s="36">
+      <c r="E279" s="5">
+        <v>146000000</v>
+      </c>
+      <c r="F279" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G272" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="H272" s="37" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="36">
-        <v>272</v>
-      </c>
-      <c r="B273" s="36">
-        <v>40</v>
-      </c>
-      <c r="C273" s="36">
+      <c r="G279" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="H279" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I279" s="5"/>
+    </row>
+    <row r="280" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5">
+        <v>41</v>
+      </c>
+      <c r="C280" s="5">
         <v>11</v>
       </c>
-      <c r="D273" s="36">
+      <c r="D280" s="5">
         <v>15</v>
       </c>
-      <c r="E273" s="36">
-        <v>180000</v>
-      </c>
-      <c r="F273" s="36">
+      <c r="E280" s="5">
+        <v>88000000</v>
+      </c>
+      <c r="F280" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G273" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="H273" s="37" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="36">
-        <v>273</v>
-      </c>
-      <c r="B274" s="36">
-        <v>40</v>
-      </c>
-      <c r="C274" s="36">
+      <c r="G280" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="H280" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I280" s="5"/>
+    </row>
+    <row r="281" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="5">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5">
+        <v>41</v>
+      </c>
+      <c r="C281" s="5">
         <v>16</v>
       </c>
-      <c r="D274" s="36">
+      <c r="D281" s="5">
         <v>20</v>
       </c>
-      <c r="E274" s="36">
-        <v>90000</v>
-      </c>
-      <c r="F274" s="36">
+      <c r="E281" s="5">
+        <v>45000000</v>
+      </c>
+      <c r="F281" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G274" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="H274" s="37" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="36">
-        <v>274</v>
-      </c>
-      <c r="B275" s="36">
-        <v>41</v>
-      </c>
-      <c r="C275" s="36">
-        <v>1</v>
-      </c>
-      <c r="D275" s="36">
-        <v>1</v>
-      </c>
-      <c r="E275" s="36">
+      <c r="G281" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="H281" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I281" s="5"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" s="36">
+        <v>281</v>
+      </c>
+      <c r="B282" s="36">
+        <v>42</v>
+      </c>
+      <c r="C282" s="36">
+        <v>1</v>
+      </c>
+      <c r="D282" s="36">
+        <v>1</v>
+      </c>
+      <c r="E282" s="36">
+        <v>100000</v>
+      </c>
+      <c r="F282" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G282" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="H282" s="37" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" s="36">
+        <v>282</v>
+      </c>
+      <c r="B283" s="36">
+        <v>42</v>
+      </c>
+      <c r="C283" s="36">
+        <v>2</v>
+      </c>
+      <c r="D283" s="36">
+        <v>2</v>
+      </c>
+      <c r="E283" s="36">
+        <v>60000</v>
+      </c>
+      <c r="F283" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G283" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="H283" s="37" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" s="36">
+        <v>283</v>
+      </c>
+      <c r="B284" s="36">
+        <v>42</v>
+      </c>
+      <c r="C284" s="36">
+        <v>3</v>
+      </c>
+      <c r="D284" s="36">
+        <v>3</v>
+      </c>
+      <c r="E284" s="36">
+        <v>30000</v>
+      </c>
+      <c r="F284" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G284" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="H284" s="37" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" s="36">
+        <v>284</v>
+      </c>
+      <c r="B285" s="36">
+        <v>42</v>
+      </c>
+      <c r="C285" s="36">
+        <v>4</v>
+      </c>
+      <c r="D285" s="36">
+        <v>6</v>
+      </c>
+      <c r="E285" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F285" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G285" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="H285" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" s="36">
+        <v>285</v>
+      </c>
+      <c r="B286" s="36">
+        <v>42</v>
+      </c>
+      <c r="C286" s="36">
+        <v>7</v>
+      </c>
+      <c r="D286" s="36">
+        <v>10</v>
+      </c>
+      <c r="E286" s="36">
+        <v>10000</v>
+      </c>
+      <c r="F286" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G286" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="H286" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" s="36">
+        <v>286</v>
+      </c>
+      <c r="B287" s="36">
+        <v>42</v>
+      </c>
+      <c r="C287" s="36">
+        <v>11</v>
+      </c>
+      <c r="D287" s="36">
+        <v>15</v>
+      </c>
+      <c r="E287" s="36">
+        <v>6000</v>
+      </c>
+      <c r="F287" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G287" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="H287" s="37" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" s="36">
+        <v>287</v>
+      </c>
+      <c r="B288" s="36">
+        <v>42</v>
+      </c>
+      <c r="C288" s="36">
+        <v>16</v>
+      </c>
+      <c r="D288" s="36">
+        <v>20</v>
+      </c>
+      <c r="E288" s="36">
+        <v>3000</v>
+      </c>
+      <c r="F288" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G288" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="H288" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="36">
+        <v>288</v>
+      </c>
+      <c r="B289" s="36">
+        <v>43</v>
+      </c>
+      <c r="C289" s="36">
+        <v>1</v>
+      </c>
+      <c r="D289" s="36">
+        <v>1</v>
+      </c>
+      <c r="E289" s="36">
         <v>1500000000</v>
       </c>
-      <c r="F275" s="36">
+      <c r="F289" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G275" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="H275" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="36">
-        <v>275</v>
-      </c>
-      <c r="B276" s="36">
-        <v>41</v>
-      </c>
-      <c r="C276" s="36">
+      <c r="G289" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="H289" s="37" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="36">
+        <v>289</v>
+      </c>
+      <c r="B290" s="36">
+        <v>43</v>
+      </c>
+      <c r="C290" s="36">
         <v>2</v>
       </c>
-      <c r="D276" s="36">
+      <c r="D290" s="36">
         <v>2</v>
       </c>
-      <c r="E276" s="36">
+      <c r="E290" s="36">
         <v>900000000</v>
       </c>
-      <c r="F276" s="36">
+      <c r="F290" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G276" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="H276" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="36">
-        <v>276</v>
-      </c>
-      <c r="B277" s="36">
-        <v>41</v>
-      </c>
-      <c r="C277" s="36">
+      <c r="G290" s="37" t="s">
+        <v>624</v>
+      </c>
+      <c r="H290" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="36">
+        <v>290</v>
+      </c>
+      <c r="B291" s="36">
+        <v>43</v>
+      </c>
+      <c r="C291" s="36">
         <v>3</v>
       </c>
-      <c r="D277" s="36">
+      <c r="D291" s="36">
         <v>3</v>
       </c>
-      <c r="E277" s="36">
+      <c r="E291" s="36">
         <v>450000000</v>
       </c>
-      <c r="F277" s="36">
+      <c r="F291" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G277" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="H277" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="36">
-        <v>277</v>
-      </c>
-      <c r="B278" s="36">
-        <v>41</v>
-      </c>
-      <c r="C278" s="36">
+      <c r="G291" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="H291" s="37" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="36">
+        <v>291</v>
+      </c>
+      <c r="B292" s="36">
+        <v>43</v>
+      </c>
+      <c r="C292" s="36">
         <v>4</v>
       </c>
-      <c r="D278" s="36">
+      <c r="D292" s="36">
         <v>6</v>
       </c>
-      <c r="E278" s="36">
+      <c r="E292" s="36">
         <v>220000000</v>
       </c>
-      <c r="F278" s="36">
+      <c r="F292" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G278" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="H278" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="36">
-        <v>278</v>
-      </c>
-      <c r="B279" s="36">
-        <v>41</v>
-      </c>
-      <c r="C279" s="36">
+      <c r="G292" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="H292" s="37" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="36">
+        <v>292</v>
+      </c>
+      <c r="B293" s="36">
+        <v>43</v>
+      </c>
+      <c r="C293" s="36">
         <v>7</v>
       </c>
-      <c r="D279" s="36">
+      <c r="D293" s="36">
         <v>10</v>
       </c>
-      <c r="E279" s="36">
+      <c r="E293" s="36">
         <v>146000000</v>
       </c>
-      <c r="F279" s="36">
+      <c r="F293" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G279" s="37" t="s">
-        <v>588</v>
-      </c>
-      <c r="H279" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="36">
-        <v>279</v>
-      </c>
-      <c r="B280" s="36">
-        <v>41</v>
-      </c>
-      <c r="C280" s="36">
+      <c r="G293" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="H293" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="36">
+        <v>293</v>
+      </c>
+      <c r="B294" s="36">
+        <v>43</v>
+      </c>
+      <c r="C294" s="36">
         <v>11</v>
       </c>
-      <c r="D280" s="36">
+      <c r="D294" s="36">
         <v>15</v>
       </c>
-      <c r="E280" s="36">
+      <c r="E294" s="36">
         <v>88000000</v>
       </c>
-      <c r="F280" s="36">
+      <c r="F294" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G280" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="H280" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="36">
-        <v>280</v>
-      </c>
-      <c r="B281" s="36">
-        <v>41</v>
-      </c>
-      <c r="C281" s="36">
+      <c r="G294" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="H294" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" s="36">
+        <v>294</v>
+      </c>
+      <c r="B295" s="36">
+        <v>43</v>
+      </c>
+      <c r="C295" s="36">
         <v>16</v>
       </c>
-      <c r="D281" s="36">
+      <c r="D295" s="36">
         <v>20</v>
       </c>
-      <c r="E281" s="36">
+      <c r="E295" s="36">
         <v>45000000</v>
       </c>
-      <c r="F281" s="36">
+      <c r="F295" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G281" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="H281" s="37" t="s">
-        <v>136</v>
+      <c r="G295" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="H295" s="37" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -16042,11 +16864,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J322" sqref="J322"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A327" sqref="A327:F352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22004,563 +22826,1083 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="36">
+    <row r="299" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="5">
         <v>298</v>
       </c>
-      <c r="B299" s="36">
+      <c r="B299" s="5">
         <v>294</v>
       </c>
-      <c r="C299" s="37" t="s">
+      <c r="C299" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D299" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E299" s="36">
+      <c r="D299" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E299" s="5">
         <v>50000</v>
       </c>
-      <c r="F299" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="36">
+      <c r="F299" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="5">
         <v>299</v>
       </c>
-      <c r="B300" s="36">
+      <c r="B300" s="5">
         <v>295</v>
       </c>
-      <c r="C300" s="37" t="s">
+      <c r="C300" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D300" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E300" s="36">
+      <c r="D300" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E300" s="5">
         <v>15000</v>
       </c>
-      <c r="F300" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="36">
+      <c r="F300" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="5">
         <v>300</v>
       </c>
-      <c r="B301" s="36">
+      <c r="B301" s="5">
         <v>296</v>
       </c>
-      <c r="C301" s="37" t="s">
+      <c r="C301" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D301" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E301" s="36">
+      <c r="D301" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E301" s="5">
         <v>5000</v>
       </c>
-      <c r="F301" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="36">
+      <c r="F301" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="5">
         <v>301</v>
       </c>
-      <c r="B302" s="36">
+      <c r="B302" s="5">
         <v>297</v>
       </c>
-      <c r="C302" s="37" t="s">
+      <c r="C302" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D302" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E302" s="36">
+      <c r="D302" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E302" s="5">
         <v>1500</v>
       </c>
-      <c r="F302" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="36">
+      <c r="F302" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="5">
         <v>302</v>
       </c>
-      <c r="B303" s="36">
+      <c r="B303" s="5">
         <v>298</v>
       </c>
-      <c r="C303" s="37" t="s">
+      <c r="C303" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D303" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E303" s="36">
+      <c r="D303" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E303" s="5">
         <v>1000</v>
       </c>
-      <c r="F303" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="36">
+      <c r="F303" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="5">
         <v>303</v>
       </c>
-      <c r="B304" s="36">
+      <c r="B304" s="5">
         <v>299</v>
       </c>
-      <c r="C304" s="37" t="s">
+      <c r="C304" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D304" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E304" s="36">
+      <c r="D304" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E304" s="5">
         <v>500</v>
       </c>
-      <c r="F304" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="36">
+      <c r="F304" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="5">
         <v>304</v>
       </c>
-      <c r="B305" s="36">
+      <c r="B305" s="5">
         <v>300</v>
       </c>
-      <c r="C305" s="37" t="s">
+      <c r="C305" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D305" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E305" s="36">
+      <c r="D305" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E305" s="5">
         <v>240</v>
       </c>
-      <c r="F305" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="36">
+      <c r="F305" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="5">
         <v>305</v>
       </c>
-      <c r="B306" s="36">
+      <c r="B306" s="5">
         <v>301</v>
       </c>
-      <c r="C306" s="37" t="s">
+      <c r="C306" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D306" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E306" s="36">
+      <c r="D306" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E306" s="5">
         <v>50000</v>
       </c>
-      <c r="F306" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="36">
+      <c r="F306" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="5">
         <v>306</v>
       </c>
-      <c r="B307" s="36">
+      <c r="B307" s="5">
         <v>302</v>
       </c>
-      <c r="C307" s="37" t="s">
+      <c r="C307" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D307" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E307" s="36">
+      <c r="D307" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E307" s="5">
         <v>15000</v>
       </c>
-      <c r="F307" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="36">
+      <c r="F307" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="5">
         <v>307</v>
       </c>
-      <c r="B308" s="36">
+      <c r="B308" s="5">
         <v>303</v>
       </c>
-      <c r="C308" s="37" t="s">
+      <c r="C308" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D308" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E308" s="36">
+      <c r="D308" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E308" s="5">
         <v>5000</v>
       </c>
-      <c r="F308" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="36">
+      <c r="F308" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="5">
         <v>308</v>
       </c>
-      <c r="B309" s="36">
+      <c r="B309" s="5">
         <v>304</v>
       </c>
-      <c r="C309" s="37" t="s">
+      <c r="C309" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D309" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E309" s="36">
+      <c r="D309" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E309" s="5">
         <v>1500</v>
       </c>
-      <c r="F309" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="36">
+      <c r="F309" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="5">
         <v>309</v>
       </c>
-      <c r="B310" s="36">
+      <c r="B310" s="5">
         <v>305</v>
       </c>
-      <c r="C310" s="37" t="s">
+      <c r="C310" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D310" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E310" s="36">
+      <c r="D310" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E310" s="5">
         <v>1000</v>
       </c>
-      <c r="F310" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="36">
+      <c r="F310" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="5">
         <v>310</v>
       </c>
-      <c r="B311" s="36">
+      <c r="B311" s="5">
         <v>306</v>
       </c>
-      <c r="C311" s="37" t="s">
+      <c r="C311" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D311" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E311" s="36">
+      <c r="D311" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E311" s="5">
         <v>500</v>
       </c>
-      <c r="F311" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="36">
+      <c r="F311" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="5">
         <v>311</v>
       </c>
-      <c r="B312" s="36">
+      <c r="B312" s="5">
         <v>307</v>
       </c>
-      <c r="C312" s="37" t="s">
+      <c r="C312" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D312" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E312" s="36">
+      <c r="D312" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E312" s="5">
         <v>240</v>
       </c>
-      <c r="F312" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="36">
+      <c r="F312" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="5">
         <v>312</v>
       </c>
-      <c r="B313" s="36">
+      <c r="B313" s="5">
         <v>308</v>
       </c>
-      <c r="C313" s="37" t="s">
+      <c r="C313" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D313" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E313" s="36">
+      <c r="D313" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E313" s="5">
         <v>50000</v>
       </c>
-      <c r="F313" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="36">
+      <c r="F313" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="5">
         <v>313</v>
       </c>
-      <c r="B314" s="36">
+      <c r="B314" s="5">
         <v>309</v>
       </c>
-      <c r="C314" s="37" t="s">
+      <c r="C314" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D314" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E314" s="36">
+      <c r="D314" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E314" s="5">
         <v>15000</v>
       </c>
-      <c r="F314" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="36">
+      <c r="F314" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="5">
         <v>314</v>
       </c>
-      <c r="B315" s="36">
+      <c r="B315" s="5">
         <v>310</v>
       </c>
-      <c r="C315" s="37" t="s">
+      <c r="C315" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D315" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E315" s="36">
+      <c r="D315" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E315" s="5">
         <v>5000</v>
       </c>
-      <c r="F315" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="36">
+      <c r="F315" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="5">
         <v>315</v>
       </c>
-      <c r="B316" s="36">
+      <c r="B316" s="5">
         <v>311</v>
       </c>
-      <c r="C316" s="37" t="s">
+      <c r="C316" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D316" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E316" s="36">
+      <c r="D316" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E316" s="5">
         <v>1500</v>
       </c>
-      <c r="F316" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="36">
+      <c r="F316" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="5">
         <v>316</v>
       </c>
-      <c r="B317" s="36">
+      <c r="B317" s="5">
         <v>312</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="C317" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D317" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E317" s="36">
+      <c r="D317" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E317" s="5">
         <v>1000</v>
       </c>
-      <c r="F317" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="36">
+      <c r="F317" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="5">
         <v>317</v>
       </c>
-      <c r="B318" s="36">
+      <c r="B318" s="5">
         <v>313</v>
       </c>
-      <c r="C318" s="37" t="s">
+      <c r="C318" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D318" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E318" s="36">
+      <c r="D318" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E318" s="5">
         <v>500</v>
       </c>
-      <c r="F318" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="36">
+      <c r="F318" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="5">
         <v>318</v>
       </c>
-      <c r="B319" s="36">
+      <c r="B319" s="5">
         <v>314</v>
       </c>
-      <c r="C319" s="37" t="s">
+      <c r="C319" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D319" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E319" s="36">
+      <c r="D319" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E319" s="5">
         <v>240</v>
       </c>
-      <c r="F319" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="36">
+      <c r="F319" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="5">
         <v>319</v>
       </c>
-      <c r="B320" s="36">
+      <c r="B320" s="5">
         <v>315</v>
       </c>
-      <c r="C320" s="37" t="s">
+      <c r="C320" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D320" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E320" s="36">
+      <c r="D320" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E320" s="5">
         <v>50000</v>
       </c>
-      <c r="F320" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="36">
+      <c r="F320" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="5">
         <v>320</v>
       </c>
-      <c r="B321" s="36">
+      <c r="B321" s="5">
         <v>316</v>
       </c>
-      <c r="C321" s="37" t="s">
+      <c r="C321" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D321" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E321" s="36">
+      <c r="D321" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E321" s="5">
         <v>15000</v>
       </c>
-      <c r="F321" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="36">
+      <c r="F321" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="5">
         <v>321</v>
       </c>
-      <c r="B322" s="36">
+      <c r="B322" s="5">
         <v>317</v>
       </c>
-      <c r="C322" s="37" t="s">
+      <c r="C322" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D322" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E322" s="36">
+      <c r="D322" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E322" s="5">
         <v>5000</v>
       </c>
-      <c r="F322" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="36">
+      <c r="F322" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="5">
         <v>322</v>
       </c>
-      <c r="B323" s="36">
+      <c r="B323" s="5">
         <v>318</v>
       </c>
-      <c r="C323" s="37" t="s">
+      <c r="C323" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D323" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E323" s="36">
+      <c r="D323" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E323" s="5">
         <v>1500</v>
       </c>
-      <c r="F323" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="36">
+      <c r="F323" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="5">
         <v>323</v>
       </c>
-      <c r="B324" s="36">
+      <c r="B324" s="5">
         <v>319</v>
       </c>
-      <c r="C324" s="37" t="s">
+      <c r="C324" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D324" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E324" s="36">
+      <c r="D324" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E324" s="5">
         <v>1000</v>
       </c>
-      <c r="F324" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="36">
+      <c r="F324" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="5">
         <v>324</v>
       </c>
-      <c r="B325" s="36">
+      <c r="B325" s="5">
         <v>320</v>
       </c>
-      <c r="C325" s="37" t="s">
+      <c r="C325" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D325" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E325" s="36">
+      <c r="D325" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E325" s="5">
         <v>500</v>
       </c>
-      <c r="F325" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="36">
+      <c r="F325" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="5">
         <v>325</v>
       </c>
-      <c r="B326" s="36">
+      <c r="B326" s="5">
         <v>321</v>
       </c>
-      <c r="C326" s="37" t="s">
+      <c r="C326" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D326" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E326" s="36">
+      <c r="D326" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E326" s="5">
         <v>240</v>
       </c>
-      <c r="F326" s="36">
+      <c r="F326" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="36">
+        <v>326</v>
+      </c>
+      <c r="B327" s="36">
+        <v>322</v>
+      </c>
+      <c r="C327" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="D327" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="E327" s="36">
+        <v>40000</v>
+      </c>
+      <c r="F327" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="36">
+        <v>327</v>
+      </c>
+      <c r="B328" s="36">
+        <v>323</v>
+      </c>
+      <c r="C328" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D328" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E328" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F328" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="36">
+        <v>328</v>
+      </c>
+      <c r="B329" s="36">
+        <v>324</v>
+      </c>
+      <c r="C329" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="D329" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E329" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F329" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="36">
+        <v>329</v>
+      </c>
+      <c r="B330" s="36">
+        <v>325</v>
+      </c>
+      <c r="C330" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="D330" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E330" s="36">
+        <v>2200</v>
+      </c>
+      <c r="F330" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="36">
+        <v>330</v>
+      </c>
+      <c r="B331" s="36">
+        <v>326</v>
+      </c>
+      <c r="C331" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D331" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E331" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F331" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="36">
+        <v>331</v>
+      </c>
+      <c r="B332" s="36">
+        <v>327</v>
+      </c>
+      <c r="C332" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="D332" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E332" s="36">
+        <v>600</v>
+      </c>
+      <c r="F332" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" s="36">
+        <v>332</v>
+      </c>
+      <c r="B333" s="36">
+        <v>328</v>
+      </c>
+      <c r="C333" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="D333" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E333" s="36">
+        <v>300</v>
+      </c>
+      <c r="F333" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" s="36">
+        <v>333</v>
+      </c>
+      <c r="B334" s="36">
+        <v>329</v>
+      </c>
+      <c r="C334" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="D334" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E334" s="36">
+        <v>60000</v>
+      </c>
+      <c r="F334" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="36">
+        <v>334</v>
+      </c>
+      <c r="B335" s="36">
+        <v>330</v>
+      </c>
+      <c r="C335" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D335" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E335" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F335" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="36">
+        <v>335</v>
+      </c>
+      <c r="B336" s="36">
+        <v>331</v>
+      </c>
+      <c r="C336" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="D336" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E336" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F336" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" s="36">
+        <v>336</v>
+      </c>
+      <c r="B337" s="36">
+        <v>332</v>
+      </c>
+      <c r="C337" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="D337" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E337" s="36">
+        <v>800</v>
+      </c>
+      <c r="F337" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" s="36">
+        <v>337</v>
+      </c>
+      <c r="B338" s="36">
+        <v>333</v>
+      </c>
+      <c r="C338" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D338" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E338" s="36">
+        <v>400</v>
+      </c>
+      <c r="F338" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" s="36">
+        <v>338</v>
+      </c>
+      <c r="B339" s="36">
+        <v>334</v>
+      </c>
+      <c r="C339" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D339" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E339" s="36">
+        <v>200</v>
+      </c>
+      <c r="F339" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" s="36">
+        <v>339</v>
+      </c>
+      <c r="B340" s="36">
+        <v>335</v>
+      </c>
+      <c r="C340" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="D340" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="E340" s="36">
+        <v>40000</v>
+      </c>
+      <c r="F340" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" s="36">
+        <v>340</v>
+      </c>
+      <c r="B341" s="36">
+        <v>336</v>
+      </c>
+      <c r="C341" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D341" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E341" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F341" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" s="36">
+        <v>341</v>
+      </c>
+      <c r="B342" s="36">
+        <v>337</v>
+      </c>
+      <c r="C342" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="D342" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E342" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F342" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" s="36">
+        <v>342</v>
+      </c>
+      <c r="B343" s="36">
+        <v>338</v>
+      </c>
+      <c r="C343" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="D343" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E343" s="36">
+        <v>2200</v>
+      </c>
+      <c r="F343" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" s="36">
+        <v>343</v>
+      </c>
+      <c r="B344" s="36">
+        <v>339</v>
+      </c>
+      <c r="C344" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D344" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E344" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F344" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" s="36">
+        <v>344</v>
+      </c>
+      <c r="B345" s="36">
+        <v>340</v>
+      </c>
+      <c r="C345" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="D345" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E345" s="36">
+        <v>600</v>
+      </c>
+      <c r="F345" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" s="36">
+        <v>345</v>
+      </c>
+      <c r="B346" s="36">
+        <v>341</v>
+      </c>
+      <c r="C346" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="D346" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E346" s="36">
+        <v>300</v>
+      </c>
+      <c r="F346" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" s="36">
+        <v>346</v>
+      </c>
+      <c r="B347" s="36">
+        <v>342</v>
+      </c>
+      <c r="C347" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="D347" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E347" s="36">
+        <v>60000</v>
+      </c>
+      <c r="F347" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" s="36">
+        <v>347</v>
+      </c>
+      <c r="B348" s="36">
+        <v>343</v>
+      </c>
+      <c r="C348" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D348" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E348" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F348" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" s="36">
+        <v>348</v>
+      </c>
+      <c r="B349" s="36">
+        <v>344</v>
+      </c>
+      <c r="C349" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="D349" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E349" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F349" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" s="36">
+        <v>349</v>
+      </c>
+      <c r="B350" s="36">
+        <v>345</v>
+      </c>
+      <c r="C350" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="D350" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E350" s="36">
+        <v>800</v>
+      </c>
+      <c r="F350" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" s="36">
+        <v>350</v>
+      </c>
+      <c r="B351" s="36">
+        <v>346</v>
+      </c>
+      <c r="C351" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D351" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E351" s="36">
+        <v>400</v>
+      </c>
+      <c r="F351" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" s="36">
+        <v>351</v>
+      </c>
+      <c r="B352" s="36">
+        <v>347</v>
+      </c>
+      <c r="C352" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D352" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E352" s="36">
+        <v>200</v>
+      </c>
+      <c r="F352" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_4.6/rank_server.xlsx
+++ b/config_4.6/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="632">
   <si>
     <t>id|</t>
   </si>
@@ -2665,6 +2665,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2702,6 +2703,14 @@
   </si>
   <si>
     <t>341,347,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leijixiaohao_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>达人榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3230,11 +3239,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3810,7 +3819,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>208</v>
@@ -4879,6 +4888,41 @@
       </c>
       <c r="L46" s="38">
         <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="26">
+        <v>46</v>
+      </c>
+      <c r="B47" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="E47" s="26">
+        <v>1604246400</v>
+      </c>
+      <c r="F47" s="26">
+        <v>2555555555</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="I47" s="26">
+        <v>44</v>
+      </c>
+      <c r="K47" s="26">
+        <v>46</v>
+      </c>
+      <c r="L47" s="26">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4890,11 +4934,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95:D98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6303,6 +6347,17 @@
         <v>45</v>
       </c>
     </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44</v>
+      </c>
+      <c r="D99" s="2">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6315,7 +6370,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:B72"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7658,11 +7713,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:G46"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8735,6 +8790,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <v>180</v>
+      </c>
+      <c r="G47" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8743,11 +8821,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:D44"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9372,6 +9450,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9381,11 +9473,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:C48"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9948,6 +10040,17 @@
       </c>
       <c r="C48" s="36">
         <v>1618243199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
